--- a/docs/ST1/ST1_12.08.24_output.xlsx
+++ b/docs/ST1/ST1_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730734745.6846416</t>
+          <t>1731622695.4974964</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730734747.1322637</t>
+          <t>1731622696.5021908</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734745.6846416.png</t>
+          <t>./test_images/SBERP1731622695.4974964.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734747.1322637.png</t>
+          <t>./test_images/SBERP1731622696.5021908.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730734747.1471968</t>
+          <t>1731622696.5171628</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730734748.6082044</t>
+          <t>1731622698.0241058</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734747.1471968.png</t>
+          <t>./test_images/SBERP1731622696.5171628.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734748.6082044.png</t>
+          <t>./test_images/SBERP1731622698.0241058.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730734748.623138</t>
+          <t>1731622698.0390394</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730734751.755371</t>
+          <t>1731622701.2949123</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734748.623138.png</t>
+          <t>./test_images/SBERP1731622698.0390394.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734751.755371.png</t>
+          <t>./test_images/SBERP1731622701.2949123.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730734756.3281193</t>
+          <t>1731622706.1589072</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730734757.3301914</t>
+          <t>1731622707.1833625</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734756.3281193.png</t>
+          <t>./test_images/SBERP1731622706.1589072.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734757.3301914.png</t>
+          <t>./test_images/SBERP1731622707.1833625.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>0.2200000000000273</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730734757.3457048</t>
+          <t>1731622707.1983235</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730734759.1812127</t>
+          <t>1731622709.082216</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734757.3457048.png</t>
+          <t>./test_images/SBERP1731622707.1983235.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734759.1812127.png</t>
+          <t>./test_images/SBERP1731622709.082216.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -772,6 +790,9 @@
       </c>
       <c r="K7" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="8">
@@ -785,13 +806,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730734759.196681</t>
+          <t>1731622709.0981731</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/SBERP1730734759.196681.png</t>
+          <t>./test_images/SBERP1731622709.0981731.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -808,8 +829,15 @@
       <c r="I8" t="n">
         <v>279.66</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>279.66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -822,22 +850,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730734761.564154</t>
+          <t>1731622711.6783836</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730734762.4749959</t>
+          <t>1731622712.5570614</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734761.564154.png</t>
+          <t>./test_images/SBER1731622711.6783836.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734762.4749959.png</t>
+          <t>./test_images/SBER1731622712.5570614.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -858,6 +886,9 @@
       </c>
       <c r="K9" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
@@ -871,22 +902,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730734762.489956</t>
+          <t>1731622712.5719945</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730734763.8805602</t>
+          <t>1731622713.897475</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734762.489956.png</t>
+          <t>./test_images/SBER1731622712.5719945.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734763.8805602.png</t>
+          <t>./test_images/SBER1731622713.897475.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -907,6 +938,9 @@
       </c>
       <c r="K10" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="11">
@@ -920,22 +954,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730734763.8965101</t>
+          <t>1731622713.9114377</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730734766.9345045</t>
+          <t>1731622716.7986846</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734763.8965101.png</t>
+          <t>./test_images/SBER1731622713.9114377.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734766.9345045.png</t>
+          <t>./test_images/SBER1731622716.7986846.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,6 +990,9 @@
       </c>
       <c r="K11" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
@@ -969,22 +1006,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730734771.2432206</t>
+          <t>1731622721.0363758</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730734772.1375237</t>
+          <t>1731622721.9210107</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734771.2432206.png</t>
+          <t>./test_images/SBER1731622721.0363758.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734772.1375237.png</t>
+          <t>./test_images/SBER1731622721.9210107.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1005,6 +1042,9 @@
       </c>
       <c r="K12" t="n">
         <v>0.2200000000000273</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -1018,22 +1058,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730734772.1534529</t>
+          <t>1731622721.9359763</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730734773.8233433</t>
+          <t>1731622723.5416768</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734772.1534529.png</t>
+          <t>./test_images/SBER1731622721.9359763.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734773.8233433.png</t>
+          <t>./test_images/SBER1731622723.5416768.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1054,6 +1094,9 @@
       </c>
       <c r="K13" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="14">
@@ -1067,22 +1110,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730734773.8392987</t>
+          <t>1731622723.5566065</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730734776.0440915</t>
+          <t>1731622725.8445072</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734773.8392987.png</t>
+          <t>./test_images/SBER1731622723.5566065.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734776.0440915.png</t>
+          <t>./test_images/SBER1731622725.8445072.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1103,6 +1146,9 @@
       </c>
       <c r="K14" t="n">
         <v>-0.7800000000000296</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="15">
@@ -1116,22 +1162,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730734776.0600502</t>
+          <t>1731622725.8594778</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730734778.0293963</t>
+          <t>1731622727.9106233</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734776.0600502.png</t>
+          <t>./test_images/SBER1731622725.8594778.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734778.0293963.png</t>
+          <t>./test_images/SBER1731622727.9106233.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1152,6 +1198,9 @@
       </c>
       <c r="K15" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16">
@@ -1165,22 +1214,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730734778.5967183</t>
+          <t>1731622728.6172726</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730734781.7742856</t>
+          <t>1731622732.06188</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734778.5967183.png</t>
+          <t>./test_images/SBER1731622728.6172726.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734781.7742856.png</t>
+          <t>./test_images/SBER1731622732.06188.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1201,6 +1250,9 @@
       </c>
       <c r="K16" t="n">
         <v>0.02000000000003865</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
@@ -1214,22 +1266,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730734785.3097932</t>
+          <t>1731622735.665948</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730734786.200597</t>
+          <t>1731622736.534522</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734785.3097932.png</t>
+          <t>./test_images/SBER1731622735.665948.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734786.200597.png</t>
+          <t>./test_images/SBER1731622736.534522.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1250,6 +1302,9 @@
       </c>
       <c r="K17" t="n">
         <v>0.8499999999999659</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -1263,22 +1318,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730734786.762934</t>
+          <t>1731622737.0866566</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730734787.723595</t>
+          <t>1731622738.0412743</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734786.762934.png</t>
+          <t>./test_images/SBER1731622737.0866566.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734787.723595.png</t>
+          <t>./test_images/SBER1731622738.0412743.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1299,6 +1354,9 @@
       </c>
       <c r="K18" t="n">
         <v>0.1400000000000432</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
@@ -1312,22 +1370,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730734787.739552</t>
+          <t>1731622738.056234</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1730734789.517824</t>
+          <t>1731622739.8965964</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734787.739552.png</t>
+          <t>./test_images/SBER1731622738.056234.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734789.517824.png</t>
+          <t>./test_images/SBER1731622739.8965964.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1348,6 +1406,9 @@
       </c>
       <c r="K19" t="n">
         <v>-0.4099999999999682</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="20">
@@ -1361,22 +1422,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730734789.5337512</t>
+          <t>1731622739.912554</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730734791.2856297</t>
+          <t>1731622741.5536013</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734789.5337512.png</t>
+          <t>./test_images/SBER1731622739.912554.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730734791.2856297.png</t>
+          <t>./test_images/SBER1731622741.5536013.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1397,6 +1458,9 @@
       </c>
       <c r="K20" t="n">
         <v>0.7699999999999818</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="21">
@@ -1410,22 +1474,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730734793.0982914</t>
+          <t>1731622743.6334057</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730734793.5182316</t>
+          <t>1731622744.0583575</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734793.0982914.png</t>
+          <t>./test_images/GAZP1731622743.6334057.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734793.5182316.png</t>
+          <t>./test_images/GAZP1731622744.0583575.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1446,6 +1510,9 @@
       </c>
       <c r="K21" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
@@ -1459,22 +1526,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730734793.7436295</t>
+          <t>1731622744.2794747</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730734794.8628511</t>
+          <t>1731622745.362326</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734793.7436295.png</t>
+          <t>./test_images/GAZP1731622744.2794747.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734794.8628511.png</t>
+          <t>./test_images/GAZP1731622745.362326.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1495,6 +1562,9 @@
       </c>
       <c r="K22" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="23">
@@ -1508,22 +1578,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730734794.878781</t>
+          <t>1731622745.378256</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730734795.568135</t>
+          <t>1731622746.113458</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734794.878781.png</t>
+          <t>./test_images/GAZP1731622745.378256.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734795.568135.png</t>
+          <t>./test_images/GAZP1731622746.113458.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1544,6 +1614,9 @@
       </c>
       <c r="K23" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="24">
@@ -1557,22 +1630,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730734796.0817335</t>
+          <t>1731622746.638744</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730734798.186111</t>
+          <t>1731622748.8480399</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734796.0817335.png</t>
+          <t>./test_images/GAZP1731622746.638744.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734798.186111.png</t>
+          <t>./test_images/GAZP1731622748.8480399.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1593,6 +1666,9 @@
       </c>
       <c r="K24" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="25">
@@ -1606,22 +1682,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730734801.4151864</t>
+          <t>1731622752.3438468</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730734802.2906017</t>
+          <t>1731622753.252064</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734801.4151864.png</t>
+          <t>./test_images/GAZP1731622752.3438468.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734802.2906017.png</t>
+          <t>./test_images/GAZP1731622753.252064.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1641,6 +1717,9 @@
         <v>128.05</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1655,22 +1734,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730734802.3075275</t>
+          <t>1731622753.268023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730734803.1459522</t>
+          <t>1731622754.2027445</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734802.3075275.png</t>
+          <t>./test_images/GAZP1731622753.268023.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734803.1459522.png</t>
+          <t>./test_images/GAZP1731622754.2027445.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1691,6 +1770,9 @@
       </c>
       <c r="K26" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="27">
@@ -1704,22 +1786,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730734803.1632738</t>
+          <t>1731622754.2196996</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1730734804.313323</t>
+          <t>1731622755.4711351</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734803.1632738.png</t>
+          <t>./test_images/GAZP1731622754.2196996.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734804.313323.png</t>
+          <t>./test_images/GAZP1731622755.4711351.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1740,6 +1822,9 @@
       </c>
       <c r="K27" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
@@ -1753,13 +1838,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730734804.3302503</t>
+          <t>1731622755.4870927</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730734804.3302503.png</t>
+          <t>./test_images/GAZP1731622755.4870927.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1776,8 +1861,15 @@
       <c r="I28" t="n">
         <v>128.19</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>128.19</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1790,22 +1882,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730734808.4011927</t>
+          <t>1731622760.0228548</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730734809.5970309</t>
+          <t>1731622761.3594778</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734808.4011927.png</t>
+          <t>./test_images/LKOH1731622760.0228548.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734809.5970309.png</t>
+          <t>./test_images/LKOH1731622761.3594778.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1826,6 +1918,9 @@
       </c>
       <c r="K29" t="n">
         <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
@@ -1839,22 +1934,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730734809.6139593</t>
+          <t>1731622761.375471</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730734812.4364228</t>
+          <t>1731622764.3687098</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734809.6139593.png</t>
+          <t>./test_images/LKOH1731622761.375471.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734812.4364228.png</t>
+          <t>./test_images/LKOH1731622764.3687098.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1875,6 +1970,9 @@
       </c>
       <c r="K30" t="n">
         <v>-45</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1888,22 +1986,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730734812.4523811</t>
+          <t>1731622764.3836439</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730734815.3411355</t>
+          <t>1731622767.3563647</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734812.4523811.png</t>
+          <t>./test_images/LKOH1731622764.3836439.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734815.3411355.png</t>
+          <t>./test_images/LKOH1731622767.3563647.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1924,6 +2022,9 @@
       </c>
       <c r="K31" t="n">
         <v>-6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="32">
@@ -1937,22 +2038,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730734817.4883523</t>
+          <t>1731622769.5835657</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730734819.9513178</t>
+          <t>1731622772.0269904</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734817.4883523.png</t>
+          <t>./test_images/LKOH1731622769.5835657.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734819.9513178.png</t>
+          <t>./test_images/LKOH1731622772.0269904.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1973,6 +2074,9 @@
       </c>
       <c r="K32" t="n">
         <v>7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
@@ -1986,22 +2090,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730734819.9672742</t>
+          <t>1731622772.0429504</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730734822.1539607</t>
+          <t>1731622774.4405344</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734819.9672742.png</t>
+          <t>./test_images/LKOH1731622772.0429504.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734822.1539607.png</t>
+          <t>./test_images/LKOH1731622774.4405344.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2022,6 +2126,9 @@
       </c>
       <c r="K33" t="n">
         <v>-41</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="34">
@@ -2035,13 +2142,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730734822.1699183</t>
+          <t>1731622774.4564912</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730734822.1699183.png</t>
+          <t>./test_images/LKOH1731622774.4564912.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2058,8 +2165,15 @@
       <c r="I34" t="n">
         <v>6415</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>6415</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2072,22 +2186,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730734823.772053</t>
+          <t>1731622776.0676095</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730734824.5870366</t>
+          <t>1731622776.930925</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734823.772053.png</t>
+          <t>./test_images/ROSN1731622776.0676095.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734824.5870366.png</t>
+          <t>./test_images/ROSN1731622776.930925.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2108,6 +2222,9 @@
       </c>
       <c r="K35" t="n">
         <v>0.5499999999999545</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
@@ -2121,22 +2238,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730734824.6029658</t>
+          <t>1731622776.9468827</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1730734828.27535</t>
+          <t>1731622780.631045</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734824.6029658.png</t>
+          <t>./test_images/ROSN1731622776.9468827.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734828.27535.png</t>
+          <t>./test_images/ROSN1731622780.631045.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2157,6 +2274,9 @@
       </c>
       <c r="K36" t="n">
         <v>-5.300000000000011</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="37">
@@ -2170,22 +2290,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730734828.2922761</t>
+          <t>1731622780.647003</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730734830.5765417</t>
+          <t>1731622783.0569136</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734828.2922761.png</t>
+          <t>./test_images/ROSN1731622780.647003.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734830.5765417.png</t>
+          <t>./test_images/ROSN1731622783.0569136.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2206,6 +2326,9 @@
       </c>
       <c r="K37" t="n">
         <v>0.1500000000000341</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
@@ -2219,22 +2342,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730734835.2357352</t>
+          <t>1731622788.0050373</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1730734836.414723</t>
+          <t>1731622789.2609794</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734835.2357352.png</t>
+          <t>./test_images/ROSN1731622788.0050373.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734836.414723.png</t>
+          <t>./test_images/ROSN1731622789.2609794.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2255,6 +2378,9 @@
       </c>
       <c r="K38" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="39">
@@ -2268,22 +2394,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730734836.4326735</t>
+          <t>1731622789.2779403</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730734837.4962218</t>
+          <t>1731622790.4802754</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734836.4326735.png</t>
+          <t>./test_images/ROSN1731622789.2779403.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734837.4962218.png</t>
+          <t>./test_images/ROSN1731622790.4802754.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2304,6 +2430,9 @@
       </c>
       <c r="K39" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
@@ -2317,22 +2446,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730734837.5131762</t>
+          <t>1731622790.4972298</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730734837.8383355</t>
+          <t>1731622790.8147728</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734837.5131762.png</t>
+          <t>./test_images/ROSN1731622790.4972298.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734837.8383355.png</t>
+          <t>./test_images/ROSN1731622790.8147728.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2353,6 +2482,9 @@
       </c>
       <c r="K40" t="n">
         <v>1.899999999999977</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="41">
@@ -2366,13 +2498,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730734838.2784145</t>
+          <t>1731622791.2618055</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730734838.2784145.png</t>
+          <t>./test_images/ROSN1731622791.2618055.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2389,8 +2521,15 @@
       <c r="I41" t="n">
         <v>499.25</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>499.25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2403,22 +2542,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730734844.9500573</t>
+          <t>1731622798.2755125</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730734845.3639498</t>
+          <t>1731622798.7012427</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734844.9500573.png</t>
+          <t>./test_images/MOEX1731622798.2755125.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734845.3639498.png</t>
+          <t>./test_images/MOEX1731622798.7012427.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2439,6 +2578,9 @@
       </c>
       <c r="K42" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="43">
@@ -2452,22 +2594,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730734845.3809326</t>
+          <t>1731622798.7171998</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730734847.1014855</t>
+          <t>1731622800.637163</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734845.3809326.png</t>
+          <t>./test_images/MOEX1731622798.7171998.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734847.1014855.png</t>
+          <t>./test_images/MOEX1731622800.637163.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2488,6 +2630,9 @@
       </c>
       <c r="K43" t="n">
         <v>0.5800000000000125</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="44">
@@ -2501,22 +2646,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730734850.993175</t>
+          <t>1731622804.9220355</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1730734853.295115</t>
+          <t>1731622807.2726126</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734850.993175.png</t>
+          <t>./test_images/MOEX1731622804.9220355.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730734853.295115.png</t>
+          <t>./test_images/MOEX1731622807.2726126.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2537,6 +2682,9 @@
       </c>
       <c r="K44" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="45">
@@ -2550,22 +2698,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730734856.1778862</t>
+          <t>1731622810.334652</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1730734858.1469903</t>
+          <t>1731622812.370558</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734856.1778862.png</t>
+          <t>./test_images/NVTK1731622810.334652.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734858.1469903.png</t>
+          <t>./test_images/NVTK1731622812.370558.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2586,6 +2734,9 @@
       </c>
       <c r="K45" t="n">
         <v>-3.200000000000045</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="46">
@@ -2599,22 +2750,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730734858.1639113</t>
+          <t>1731622812.3865151</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730734860.5401337</t>
+          <t>1731622815.0973568</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734858.1639113.png</t>
+          <t>./test_images/NVTK1731622812.3865151.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734860.5401337.png</t>
+          <t>./test_images/NVTK1731622815.0973568.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2635,6 +2786,9 @@
       </c>
       <c r="K46" t="n">
         <v>-0.8000000000000682</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="47">
@@ -2648,22 +2802,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730734865.9608064</t>
+          <t>1731622820.8918424</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730734868.3835192</t>
+          <t>1731622823.330396</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734865.9608064.png</t>
+          <t>./test_images/NVTK1731622820.8918424.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730734868.3835192.png</t>
+          <t>./test_images/NVTK1731622823.330396.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2683,6 +2837,9 @@
         <v>1017</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2697,22 +2854,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730734872.0391285</t>
+          <t>1731622826.98098</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1730734873.271736</t>
+          <t>1731622828.2749627</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734872.0391285.png</t>
+          <t>./test_images/CNY1731622826.98098.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734873.271736.png</t>
+          <t>./test_images/CNY1731622828.2749627.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2733,6 +2890,9 @@
       </c>
       <c r="K48" t="n">
         <v>-0.02200000000000024</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="49">
@@ -2746,22 +2906,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730734873.288665</t>
+          <t>1731622828.2909167</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1730734874.119043</t>
+          <t>1731622829.2626252</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734873.288665.png</t>
+          <t>./test_images/CNY1731622828.2909167.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734874.119043.png</t>
+          <t>./test_images/CNY1731622829.2626252.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2782,6 +2942,9 @@
       </c>
       <c r="K49" t="n">
         <v>0.005000000000000782</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="50">
@@ -2795,22 +2958,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730734874.1359978</t>
+          <t>1731622829.284565</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730734875.1933668</t>
+          <t>1731622830.4634829</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734874.1359978.png</t>
+          <t>./test_images/CNY1731622829.284565.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734875.1933668.png</t>
+          <t>./test_images/CNY1731622830.4634829.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2831,6 +2994,9 @@
       </c>
       <c r="K50" t="n">
         <v>0.01700000000000124</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="51">
@@ -2844,22 +3010,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730734875.441703</t>
+          <t>1731622830.7435853</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1730734877.0338376</t>
+          <t>1731622832.4882352</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734875.441703.png</t>
+          <t>./test_images/CNY1731622830.7435853.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734877.0338376.png</t>
+          <t>./test_images/CNY1731622832.4882352.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2880,6 +3046,9 @@
       </c>
       <c r="K51" t="n">
         <v>0.0129999999999999</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="52">
@@ -2893,22 +3062,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730734877.830058</t>
+          <t>1731622833.4015913</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1730734878.3431911</t>
+          <t>1731622833.9946954</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734877.830058.png</t>
+          <t>./test_images/CNY1731622833.4015913.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734878.3431911.png</t>
+          <t>./test_images/CNY1731622833.9946954.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2929,6 +3098,9 @@
       </c>
       <c r="K52" t="n">
         <v>0.0129999999999999</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="53">
@@ -2942,22 +3114,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730734880.7584174</t>
+          <t>1731622836.6079004</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1730734881.7665687</t>
+          <t>1731622837.7504866</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734880.7584174.png</t>
+          <t>./test_images/CNY1731622836.6079004.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734881.7665687.png</t>
+          <t>./test_images/CNY1731622837.7504866.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2978,6 +3150,9 @@
       </c>
       <c r="K53" t="n">
         <v>0.006999999999999673</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="54">
@@ -2991,22 +3166,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730734882.4078844</t>
+          <t>1731622838.4233193</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1730734883.6947496</t>
+          <t>1731622839.7318802</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734882.4078844.png</t>
+          <t>./test_images/CNY1731622838.4233193.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734883.6947496.png</t>
+          <t>./test_images/CNY1731622839.7318802.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3027,6 +3202,9 @@
       </c>
       <c r="K54" t="n">
         <v>-0.006000000000000227</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="55">
@@ -3040,13 +3218,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730734883.7117043</t>
+          <t>1731622839.7488346</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730734883.7117043.png</t>
+          <t>./test_images/CNY1731622839.7488346.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3063,8 +3241,15 @@
       <c r="I55" t="n">
         <v>11.956</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.956</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3077,22 +3262,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730734887.7159698</t>
+          <t>1731622843.7265532</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730734889.5727308</t>
+          <t>1731622845.814588</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734887.7159698.png</t>
+          <t>./test_images/GMKN1731622843.7265532.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734889.5727308.png</t>
+          <t>./test_images/GMKN1731622845.814588.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3113,6 +3298,9 @@
       </c>
       <c r="K56" t="n">
         <v>0.9200000000000017</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="57">
@@ -3126,22 +3314,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730734889.8091333</t>
+          <t>1731622846.0685587</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1730734890.4713879</t>
+          <t>1731622846.7626717</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734889.8091333.png</t>
+          <t>./test_images/GMKN1731622846.0685587.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734890.4713879.png</t>
+          <t>./test_images/GMKN1731622846.7626717.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3162,6 +3350,9 @@
       </c>
       <c r="K57" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="58">
@@ -3175,22 +3366,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730734890.4888623</t>
+          <t>1731622846.7813544</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730734896.2098715</t>
+          <t>1731622852.633326</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734890.4888623.png</t>
+          <t>./test_images/GMKN1731622846.7813544.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734896.2098715.png</t>
+          <t>./test_images/GMKN1731622852.633326.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3211,6 +3402,9 @@
       </c>
       <c r="K58" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="59">
@@ -3224,22 +3418,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730734899.5614073</t>
+          <t>1731622856.0743048</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1730734901.1920521</t>
+          <t>1731622857.7652383</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734899.5614073.png</t>
+          <t>./test_images/GMKN1731622856.0743048.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734901.1920521.png</t>
+          <t>./test_images/GMKN1731622857.7652383.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3260,6 +3454,9 @@
       </c>
       <c r="K59" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="60">
@@ -3273,22 +3470,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730734901.209006</t>
+          <t>1731622857.7811959</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730734902.0238278</t>
+          <t>1731622858.6157281</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734901.209006.png</t>
+          <t>./test_images/GMKN1731622857.7811959.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730734902.0238278.png</t>
+          <t>./test_images/GMKN1731622858.6157281.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3309,6 +3506,9 @@
       </c>
       <c r="K60" t="n">
         <v>0.519999999999996</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="61">
@@ -3322,22 +3522,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730734906.3315353</t>
+          <t>1731622863.428158</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730734907.2734916</t>
+          <t>1731622864.4911785</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734906.3315353.png</t>
+          <t>./test_images/NLMK1731622863.428158.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734907.2734916.png</t>
+          <t>./test_images/NLMK1731622864.4911785.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3358,6 +3558,9 @@
       </c>
       <c r="K61" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="62">
@@ -3371,22 +3574,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730734907.2904458</t>
+          <t>1731622864.507136</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1730734908.1345959</t>
+          <t>1731622865.37578</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734907.2904458.png</t>
+          <t>./test_images/NLMK1731622864.507136.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734908.1345959.png</t>
+          <t>./test_images/NLMK1731622865.37578.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3407,6 +3610,9 @@
       </c>
       <c r="K62" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="63">
@@ -3420,22 +3626,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730734908.1515503</t>
+          <t>1731622865.3927312</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1730734910.1535912</t>
+          <t>1731622867.6089613</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734908.1515503.png</t>
+          <t>./test_images/NLMK1731622865.3927312.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734910.1535912.png</t>
+          <t>./test_images/NLMK1731622867.6089613.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3456,6 +3662,9 @@
       </c>
       <c r="K63" t="n">
         <v>0.8400000000000034</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="64">
@@ -3469,22 +3678,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730734912.5695057</t>
+          <t>1731622870.0888238</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730734913.4757469</t>
+          <t>1731622871.009557</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734912.5695057.png</t>
+          <t>./test_images/NLMK1731622870.0888238.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734913.4757469.png</t>
+          <t>./test_images/NLMK1731622871.009557.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3505,6 +3714,9 @@
       </c>
       <c r="K64" t="n">
         <v>0.7800000000000011</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="65">
@@ -3518,22 +3730,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730734916.1485462</t>
+          <t>1731622873.803653</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730734917.4447663</t>
+          <t>1731622875.126794</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734916.1485462.png</t>
+          <t>./test_images/NLMK1731622873.803653.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734917.4447663.png</t>
+          <t>./test_images/NLMK1731622875.126794.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3554,6 +3766,9 @@
       </c>
       <c r="K65" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="66">
@@ -3567,13 +3782,13 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730734917.946355</t>
+          <t>1731622875.7823346</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730734917.946355.png</t>
+          <t>./test_images/NLMK1731622875.7823346.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3590,8 +3805,15 @@
       <c r="I66" t="n">
         <v>162.04</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>162.04</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3604,22 +3826,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730734919.5838826</t>
+          <t>1731622877.405171</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1730734920.413833</t>
+          <t>1731622878.32597</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734919.5838826.png</t>
+          <t>./test_images/MAGN1731622877.405171.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734920.413833.png</t>
+          <t>./test_images/MAGN1731622878.32597.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3640,6 +3862,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="68">
@@ -3653,22 +3878,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730734920.4307878</t>
+          <t>1731622878.3419285</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730734921.9749966</t>
+          <t>1731622879.9696188</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734920.4307878.png</t>
+          <t>./test_images/MAGN1731622878.3419285.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734921.9749966.png</t>
+          <t>./test_images/MAGN1731622879.9696188.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3689,6 +3914,9 @@
       </c>
       <c r="K68" t="n">
         <v>0.230000000000004</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="69">
@@ -3702,22 +3930,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730734930.4499745</t>
+          <t>1731622888.5938165</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1730734930.9392505</t>
+          <t>1731622889.0621328</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734930.4499745.png</t>
+          <t>./test_images/MAGN1731622888.5938165.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734930.9392505.png</t>
+          <t>./test_images/MAGN1731622889.0621328.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3738,6 +3966,9 @@
       </c>
       <c r="K69" t="n">
         <v>0.2250000000000014</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="70">
@@ -3751,13 +3982,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730734931.4664042</t>
+          <t>1731622889.5899837</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730734931.4664042.png</t>
+          <t>./test_images/MAGN1731622889.5899837.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3774,8 +4005,15 @@
       <c r="I70" t="n">
         <v>49.99</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3788,22 +4026,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730734936.7699144</t>
+          <t>1731622894.9797697</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1730734939.498151</t>
+          <t>1731622897.8425481</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734936.7699144.png</t>
+          <t>./test_images/CHMF1731622894.9797697.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734939.498151.png</t>
+          <t>./test_images/CHMF1731622897.8425481.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3824,6 +4062,9 @@
       </c>
       <c r="K71" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="72">
@@ -3837,22 +4078,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730734944.0783668</t>
+          <t>1731622902.5297673</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730734945.2131107</t>
+          <t>1731622903.7475781</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734944.0783668.png</t>
+          <t>./test_images/CHMF1731622902.5297673.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734945.2131107.png</t>
+          <t>./test_images/CHMF1731622903.7475781.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3873,6 +4114,9 @@
       </c>
       <c r="K72" t="n">
         <v>6.200000000000045</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="73">
@@ -3886,22 +4130,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730734945.8794847</t>
+          <t>1731622904.4746256</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730734946.4555542</t>
+          <t>1731622905.0729227</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734945.8794847.png</t>
+          <t>./test_images/CHMF1731622904.4746256.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730734946.4555542.png</t>
+          <t>./test_images/CHMF1731622905.0729227.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3922,6 +4166,9 @@
       </c>
       <c r="K73" t="n">
         <v>3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="74">
@@ -3935,22 +4182,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1730734950.8041203</t>
+          <t>1731622909.8589954</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1730734952.3070035</t>
+          <t>1731622911.4489264</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734950.8041203.png</t>
+          <t>./test_images/ALRS1731622909.8589954.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734952.3070035.png</t>
+          <t>./test_images/ALRS1731622911.4489264.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3971,6 +4218,9 @@
       </c>
       <c r="K74" t="n">
         <v>0.1600000000000037</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="75">
@@ -3984,22 +4234,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1730734953.1091383</t>
+          <t>1731622912.2518637</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1730734955.5439818</t>
+          <t>1731622914.6727164</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734953.1091383.png</t>
+          <t>./test_images/ALRS1731622912.2518637.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734955.5439818.png</t>
+          <t>./test_images/ALRS1731622914.6727164.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4020,6 +4270,9 @@
       </c>
       <c r="K75" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="76">
@@ -4033,22 +4286,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1730734955.5619335</t>
+          <t>1731622914.6896708</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1730734962.1100135</t>
+          <t>1731622921.2987776</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734955.5619335.png</t>
+          <t>./test_images/ALRS1731622914.6896708.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734962.1100135.png</t>
+          <t>./test_images/ALRS1731622921.2987776.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4069,6 +4322,9 @@
       </c>
       <c r="K76" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="77">
@@ -4082,13 +4338,13 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1730734962.127959</t>
+          <t>1731622921.31576</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730734962.127959.png</t>
+          <t>./test_images/ALRS1731622921.31576.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4105,8 +4361,15 @@
       <c r="I77" t="n">
         <v>61.11</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4119,22 +4382,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1730734967.1681955</t>
+          <t>1731622926.4861777</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1730734968.563959</t>
+          <t>1731622927.8205485</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734967.1681955.png</t>
+          <t>./test_images/VTBR1731622926.4861777.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734968.563959.png</t>
+          <t>./test_images/VTBR1731622927.8205485.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4155,6 +4418,9 @@
       </c>
       <c r="K78" t="n">
         <v>0.519999999999996</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="79">
@@ -4168,22 +4434,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1730734968.9180074</t>
+          <t>1731622928.1700459</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1730734969.720019</t>
+          <t>1731622929.0030854</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734968.9180074.png</t>
+          <t>./test_images/VTBR1731622928.1700459.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734969.720019.png</t>
+          <t>./test_images/VTBR1731622929.0030854.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4204,6 +4470,9 @@
       </c>
       <c r="K79" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="80">
@@ -4217,22 +4486,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1730734969.7379713</t>
+          <t>1731622929.0200408</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1730734970.6051502</t>
+          <t>1731622929.9020045</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734969.7379713.png</t>
+          <t>./test_images/VTBR1731622929.0200408.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734970.6051502.png</t>
+          <t>./test_images/VTBR1731622929.9020045.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4253,6 +4522,9 @@
       </c>
       <c r="K80" t="n">
         <v>0.4200000000000017</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="81">
@@ -4266,22 +4538,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1730734970.921307</t>
+          <t>1731622930.2274466</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1730734971.9590497</t>
+          <t>1731622931.252668</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734970.921307.png</t>
+          <t>./test_images/VTBR1731622930.2274466.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734971.9590497.png</t>
+          <t>./test_images/VTBR1731622931.252668.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4302,6 +4574,9 @@
       </c>
       <c r="K81" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="82">
@@ -4315,22 +4590,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1730734971.9770017</t>
+          <t>1731622931.2706196</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1730734972.703122</t>
+          <t>1731622932.0419254</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734971.9770017.png</t>
+          <t>./test_images/VTBR1731622931.2706196.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734972.703122.png</t>
+          <t>./test_images/VTBR1731622932.0419254.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4351,6 +4626,9 @@
       </c>
       <c r="K82" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="83">
@@ -4364,22 +4642,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1730734973.0093074</t>
+          <t>1731622932.3762512</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1730734974.759276</t>
+          <t>1731622934.0805125</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734973.0093074.png</t>
+          <t>./test_images/VTBR1731622932.3762512.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734974.759276.png</t>
+          <t>./test_images/VTBR1731622934.0805125.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4400,6 +4678,9 @@
       </c>
       <c r="K83" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="84">
@@ -4413,22 +4694,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1730734976.3979874</t>
+          <t>1731622935.7777936</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1730734977.3269932</t>
+          <t>1731622936.7479093</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734976.3979874.png</t>
+          <t>./test_images/VTBR1731622935.7777936.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734977.3269932.png</t>
+          <t>./test_images/VTBR1731622936.7479093.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4449,6 +4730,9 @@
       </c>
       <c r="K84" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="85">
@@ -4462,13 +4746,13 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1730734978.1193006</t>
+          <t>1731622937.4123726</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730734978.1193006.png</t>
+          <t>./test_images/VTBR1731622937.4123726.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4485,8 +4769,15 @@
       <c r="I85" t="n">
         <v>97.83</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>97.83</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4499,22 +4790,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1730734983.2741704</t>
+          <t>1731622942.7473445</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1730734984.2830122</t>
+          <t>1731622943.9583716</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734983.2741704.png</t>
+          <t>./test_images/SELG1731622942.7473445.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734984.2830122.png</t>
+          <t>./test_images/SELG1731622943.9583716.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4535,6 +4826,9 @@
       </c>
       <c r="K86" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="87">
@@ -4548,22 +4842,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1730734984.2989464</t>
+          <t>1731622943.9743276</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1730734987.6528056</t>
+          <t>1731622947.314867</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734984.2989464.png</t>
+          <t>./test_images/SELG1731622943.9743276.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734987.6528056.png</t>
+          <t>./test_images/SELG1731622947.314867.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4584,6 +4878,9 @@
       </c>
       <c r="K87" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="88">
@@ -4597,13 +4894,13 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1730734995.413201</t>
+          <t>1731622955.471232</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730734995.413201.png</t>
+          <t>./test_images/SELG1731622955.471232.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -4620,8 +4917,15 @@
       <c r="I88" t="n">
         <v>55.77</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4634,22 +4938,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1730735000.708951</t>
+          <t>1731622961.041897</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1730735000.8821218</t>
+          <t>1731622961.3469386</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735000.708951.png</t>
+          <t>./test_images/SOFL1731622961.041897.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735000.8821218.png</t>
+          <t>./test_images/SOFL1731622961.3469386.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4670,6 +4974,9 @@
       </c>
       <c r="K89" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="90">
@@ -4683,22 +4990,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1730735001.7466793</t>
+          <t>1731622962.3221302</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1730735003.0083485</t>
+          <t>1731622963.680486</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735001.7466793.png</t>
+          <t>./test_images/SOFL1731622962.3221302.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735003.0083485.png</t>
+          <t>./test_images/SOFL1731622963.680486.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4719,6 +5026,9 @@
       </c>
       <c r="K90" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="91">
@@ -4732,22 +5042,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1730735003.0253592</t>
+          <t>1731622963.697413</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1730735004.712459</t>
+          <t>1731622965.5934155</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735003.0253592.png</t>
+          <t>./test_images/SOFL1731622963.697413.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735004.712459.png</t>
+          <t>./test_images/SOFL1731622965.5934155.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4768,6 +5078,9 @@
       </c>
       <c r="K91" t="n">
         <v>0.7999999999999829</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="92">
@@ -4781,22 +5094,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1730735007.925948</t>
+          <t>1731622968.8615365</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1730735008.931427</t>
+          <t>1731622969.8497593</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735007.925948.png</t>
+          <t>./test_images/SOFL1731622968.8615365.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735008.931427.png</t>
+          <t>./test_images/SOFL1731622969.8497593.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4817,6 +5130,9 @@
       </c>
       <c r="K92" t="n">
         <v>0.8599999999999852</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4830,22 +5146,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1730735016.7984252</t>
+          <t>1731622978.0474877</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1730735021.6350183</t>
+          <t>1731622983.1825523</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>./test_images/MRKP1730735016.7984252.png</t>
+          <t>./test_images/MRKP1731622978.0474877.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>./test_images/MRKP1730735021.6350183.png</t>
+          <t>./test_images/MRKP1731622983.1825523.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4866,6 +5182,9 @@
       </c>
       <c r="K93" t="n">
         <v>-0.001199999999999979</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="94">
@@ -4879,13 +5198,13 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1730735021.6509757</t>
+          <t>1731622983.198482</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>./test_images/MRKP1730735021.6509757.png</t>
+          <t>./test_images/MRKP1731622983.198482.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4902,8 +5221,15 @@
       <c r="I94" t="n">
         <v>0.2957</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.2957</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4916,22 +5242,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1730735024.9611657</t>
+          <t>1731622986.64448</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1730735025.7810683</t>
+          <t>1731622987.5204623</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735024.9611657.png</t>
+          <t>./test_images/AFKS1731622986.64448.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735025.7810683.png</t>
+          <t>./test_images/AFKS1731622987.5204623.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4952,6 +5278,9 @@
       </c>
       <c r="K95" t="n">
         <v>0.0470000000000006</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="96">
@@ -4965,22 +5294,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1730735025.799989</t>
+          <t>1731622987.537417</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1730735027.641049</t>
+          <t>1731622989.449773</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735025.799989.png</t>
+          <t>./test_images/AFKS1731622987.537417.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735027.641049.png</t>
+          <t>./test_images/AFKS1731622989.449773.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5001,6 +5330,9 @@
       </c>
       <c r="K96" t="n">
         <v>-0.01299999999999812</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -5014,22 +5346,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1730735027.6590009</t>
+          <t>1731622989.466731</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1730735028.8438344</t>
+          <t>1731622990.7326603</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735027.6590009.png</t>
+          <t>./test_images/AFKS1731622989.466731.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735028.8438344.png</t>
+          <t>./test_images/AFKS1731622990.7326603.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5050,6 +5382,9 @@
       </c>
       <c r="K97" t="n">
         <v>0.05400000000000205</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="98">
@@ -5063,22 +5398,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1730735034.3388083</t>
+          <t>1731622996.3895185</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1730735035.084844</t>
+          <t>1731622997.2346582</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735034.3388083.png</t>
+          <t>./test_images/AFKS1731622996.3895185.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735035.084844.png</t>
+          <t>./test_images/AFKS1731622997.2346582.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5099,6 +5434,9 @@
       </c>
       <c r="K98" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="99">
@@ -5112,22 +5450,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1730735035.127757</t>
+          <t>1731622997.2526093</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1730735036.0782468</t>
+          <t>1731622998.2221327</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735035.127757.png</t>
+          <t>./test_images/AFKS1731622997.2526093.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735036.0782468.png</t>
+          <t>./test_images/AFKS1731622998.2221327.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5148,6 +5486,9 @@
       </c>
       <c r="K99" t="n">
         <v>-0.004999999999999005</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="100">
@@ -5161,22 +5502,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1730735036.0961716</t>
+          <t>1731622998.2390873</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1730735037.0218334</t>
+          <t>1731622999.1721988</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735036.0961716.png</t>
+          <t>./test_images/AFKS1731622998.2390873.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735037.0218334.png</t>
+          <t>./test_images/AFKS1731622999.1721988.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5197,6 +5538,9 @@
       </c>
       <c r="K100" t="n">
         <v>0.00700000000000145</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="101">
@@ -5210,13 +5554,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1730735037.0403209</t>
+          <t>1731622999.1891568</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730735037.0403209.png</t>
+          <t>./test_images/AFKS1731622999.1891568.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -5233,8 +5577,15 @@
       <c r="I101" t="n">
         <v>19.962</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>19.962</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5247,22 +5598,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1730735044.0646386</t>
+          <t>1731623006.591274</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1730735045.6323009</t>
+          <t>1731623008.1428642</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730735044.0646386.png</t>
+          <t>./test_images/SIBN1731623006.591274.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730735045.6323009.png</t>
+          <t>./test_images/SIBN1731623008.1428642.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5283,6 +5634,9 @@
       </c>
       <c r="K102" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="103">
@@ -5296,22 +5650,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1730735050.3931234</t>
+          <t>1731623012.9223325</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1730735052.297192</t>
+          <t>1731623014.786459</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730735050.3931234.png</t>
+          <t>./test_images/SIBN1731623012.9223325.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730735052.297192.png</t>
+          <t>./test_images/SIBN1731623014.786459.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5332,6 +5686,9 @@
       </c>
       <c r="K103" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="104">
@@ -5345,13 +5702,13 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1730735052.3151443</t>
+          <t>1731623014.8044415</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730735052.3151443.png</t>
+          <t>./test_images/SIBN1731623014.8044415.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -5368,8 +5725,15 @@
       <c r="I104" t="n">
         <v>670.7</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>670.7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5382,22 +5746,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1730735056.4845598</t>
+          <t>1731623019.1372972</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1730735057.6071405</t>
+          <t>1731623020.3636477</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735056.4845598.png</t>
+          <t>./test_images/MTLR1731623019.1372972.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735057.6071405.png</t>
+          <t>./test_images/MTLR1731623020.3636477.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5418,6 +5782,9 @@
       </c>
       <c r="K105" t="n">
         <v>-0.5300000000000011</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="106">
@@ -5431,22 +5798,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1730735057.62609</t>
+          <t>1731623020.3818564</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1730735059.295509</t>
+          <t>1731623022.1500492</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735057.62609.png</t>
+          <t>./test_images/MTLR1731623020.3818564.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735059.295509.png</t>
+          <t>./test_images/MTLR1731623022.1500492.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5467,6 +5834,9 @@
       </c>
       <c r="K106" t="n">
         <v>-0.3300000000000125</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="107">
@@ -5480,22 +5850,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1730735059.3144581</t>
+          <t>1731623022.1680012</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1730735060.319006</t>
+          <t>1731623023.251838</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735059.3144581.png</t>
+          <t>./test_images/MTLR1731623022.1680012.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735060.319006.png</t>
+          <t>./test_images/MTLR1731623023.251838.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5516,6 +5886,9 @@
       </c>
       <c r="K107" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="108">
@@ -5529,22 +5902,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1730735067.5905173</t>
+          <t>1731623030.5677958</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1730735069.8901107</t>
+          <t>1731623033.0430248</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735067.5905173.png</t>
+          <t>./test_images/MTLR1731623030.5677958.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730735069.8901107.png</t>
+          <t>./test_images/MTLR1731623033.0430248.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5565,6 +5938,9 @@
       </c>
       <c r="K108" t="n">
         <v>1.129999999999995</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -5578,7 +5954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5602,6 +5978,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5615,6 +6006,15 @@
       <c r="C2" t="n">
         <v>12</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.06333333333333731</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5626,7 +6026,16 @@
         <v>1.660000000000011</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2075000000000014</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -5639,7 +6048,16 @@
         <v>0.02700000000000102</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.003375000000000128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -5652,7 +6070,16 @@
         <v>0.9999999999999574</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1249999999999947</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -5665,7 +6092,16 @@
         <v>0.09300000000000708</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0132857142857153</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5678,7 +6114,16 @@
         <v>-2.400000000000091</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.3428571428571558</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4800000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5691,47 +6136,83 @@
         <v>2.380000000000024</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3966666666666707</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.019999999999996</v>
+        <v>-83</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-13.83333333333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-83</v>
+        <v>-0.08999999999997499</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.01499999999999583</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.08999999999997499</v>
+        <v>1.019999999999996</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.2039999999999992</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5745,6 +6226,15 @@
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.5549999999999855</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5758,96 +6248,168 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.2224999999999966</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.000000000000114</v>
+        <v>0.4299999999999997</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1074999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.4450000000000074</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1112500000000018</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.200000000000017</v>
+        <v>-4.000000000000114</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-1.333333333333371</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4450000000000074</v>
+        <v>1.200000000000017</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.03666666666666648</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1099999999999994</v>
+        <v>1.550000000000068</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5166666666666894</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.550000000000068</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="21">
@@ -5860,7 +6422,16 @@
         <v>-0.001199999999999979</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.0005999999999999894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="22">
@@ -5875,6 +6446,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_12.08.24_output.xlsx
+++ b/docs/ST1/ST1_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731622695.4974964</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731622696.5021908</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622695.4974964.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622696.5021908.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.48</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.25</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2300000000000182</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731622696.5171628</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731622698.0241058</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622696.5171628.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622698.0241058.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731622698.0390394</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731622701.2949123</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622698.0390394.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622701.2949123.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.93</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731622706.1589072</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731622707.1833625</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622706.1589072.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622707.1833625.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>279.08</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>279.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2200000000000273</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731622707.1983235</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731622709.082216</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622707.1983235.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731622709.082216.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>279.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>279.66</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3600000000000136</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -799,95 +845,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731622709.0981731</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731622709.0981731.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731622709.0981731.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>279.66</v>
       </c>
-      <c r="J8" t="n">
-        <v>279.66</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>280.15</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4899999999999523</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731622711.6783836</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731622712.5570614</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622711.6783836.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622712.5570614.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.48</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.25</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2300000000000182</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731622712.5719945</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731622713.897475</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622712.5719945.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622713.897475.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.25</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731622713.9114377</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731622716.7986846</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622713.9114377.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622716.7986846.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.93</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731622721.0363758</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731622721.9210107</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622721.0363758.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622721.9210107.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>279.08</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>279.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2200000000000273</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731622721.9359763</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731622723.5416768</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622721.9359763.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622723.5416768.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>279.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>279.66</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3600000000000136</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731622723.5566065</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731622725.8445072</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622723.5566065.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622725.8445072.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>279.66</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.88</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.7800000000000296</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731622725.8594778</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731622727.9106233</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622725.8594778.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622727.9106233.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.88</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.62</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731622728.6172726</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731622732.06188</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622728.6172726.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622732.06188.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.92</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>278.9</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.02000000000003865</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731622735.665948</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731622736.534522</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622735.665948.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622736.534522.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>279.47</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>280.32</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.8499999999999659</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731622737.0866566</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731622738.0412743</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622737.0866566.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622738.0412743.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>280.02</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>280.16</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1400000000000432</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731622738.056234</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731622739.8965964</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622738.056234.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622739.8965964.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>280.16</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>280.57</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.4099999999999682</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731622739.912554</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731622741.5536013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622739.912554.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731622741.5536013.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>280.57</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>281.34</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.7699999999999818</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731622743.6334057</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731622744.0583575</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622743.6334057.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622744.0583575.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.93</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>128.31</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731622744.2794747</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731622745.362326</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622744.2794747.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622745.362326.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.89</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.85</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731622745.378256</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731622746.113458</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622745.378256.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622746.113458.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.85</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>127.31</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731622746.638744</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731622748.8480399</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622746.638744.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622748.8480399.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.63</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>127.53</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731622752.3438468</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731622753.252064</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622752.3438468.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622753.252064.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>128.05</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>128.05</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731622753.268023</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731622754.2027445</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622753.268023.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622754.2027445.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>128.05</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>128.11</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731622754.2196996</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731622755.4711351</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622754.2196996.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622755.4711351.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>128.11</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>128.19</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1831,95 +1997,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731622755.4870927</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731622755.4870927.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731622755.4870927.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>128.19</v>
       </c>
-      <c r="J28" t="n">
-        <v>128.19</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>128.91</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.7199999999999989</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731622760.0228548</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731622761.3594778</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622760.0228548.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622761.3594778.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6375</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6373</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731622761.375471</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731622764.3687098</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622761.375471.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622764.3687098.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6373</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6328</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-45</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731622764.3836439</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731622767.3563647</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622764.3836439.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622767.3563647.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6328</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6334</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-6</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731622769.5835657</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731622772.0269904</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622769.5835657.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622772.0269904.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6367</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6374</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>7</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731622772.0429504</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731622774.4405344</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622772.0429504.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622774.4405344.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6374</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6415</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-41</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -2135,95 +2337,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731622774.4564912</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731622774.4564912.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731622774.4564912.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6415</v>
       </c>
-      <c r="J34" t="n">
-        <v>6415</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6429</v>
+      </c>
+      <c r="M34" t="n">
+        <v>14</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731622776.0676095</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731622776.930925</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622776.0676095.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622776.930925.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>501.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>501.35</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.5499999999999545</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731622776.9468827</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731622780.631045</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622776.9468827.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622780.631045.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>501.35</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>496.05</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-5.300000000000011</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-1.06</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731622780.647003</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731622783.0569136</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622780.647003.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622783.0569136.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>496.05</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>495.9</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1500000000000341</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731622788.0050373</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731622789.2609794</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622788.0050373.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622789.2609794.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>498.85</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>498.75</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731622789.2779403</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731622790.4802754</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622789.2779403.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622790.4802754.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>498.75</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>498.35</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731622790.4972298</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731622790.8147728</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622790.4972298.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622790.8147728.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>498.35</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>500.25</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2491,95 +2735,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731622791.2618055</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731622791.2618055.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731622791.2618055.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>499.25</v>
       </c>
-      <c r="J41" t="n">
-        <v>499.25</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>501.85</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.600000000000023</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731622798.2755125</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731622798.7012427</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622798.2755125.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622798.7012427.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>224.56</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>224.32</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731622798.7171998</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731622800.637163</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622798.7171998.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622800.637163.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>224.32</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>224.9</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.5800000000000125</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731622804.9220355</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731622807.2726126</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622804.9220355.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622807.2726126.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>226.1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>226.48</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731622810.334652</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731622812.370558</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622810.334652.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622812.370558.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1009.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1012.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731622812.3865151</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731622815.0973568</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622812.3865151.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622815.0973568.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1012.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1011.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.8000000000000682</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731622820.8918424</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731622823.330396</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622820.8918424.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622823.330396.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1017</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1017</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731622826.98098</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731622828.2749627</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622826.98098.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622828.2749627.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>11.941</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>11.919</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.02200000000000024</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2899,51 +3191,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731622828.2909167</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731622829.2626252</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622828.2909167.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622829.2626252.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>11.919</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>11.914</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2951,51 +3249,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731622829.284565</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731622830.4634829</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622829.284565.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622830.4634829.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>11.914</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>11.931</v>
       </c>
-      <c r="K50" t="n">
-        <v>0.01700000000000124</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
+        <v>0.01699999999999946</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3003,51 +3307,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731622830.7435853</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731622832.4882352</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622830.7435853.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622832.4882352.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>11.907</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>11.92</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3055,51 +3365,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731622833.4015913</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731622833.9946954</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622833.4015913.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622833.9946954.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>11.928</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>11.941</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731622836.6079004</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731622837.7504866</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622836.6079004.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622837.7504866.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>11.96</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>11.967</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731622838.4233193</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731622839.7318802</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622838.4233193.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622839.7318802.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>11.962</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>11.956</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3211,95 +3539,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731622839.7488346</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731622839.7488346.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731622839.7488346.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>11.956</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.956</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>12.009</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.05300000000000082</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731622843.7265532</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731622845.814588</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622843.7265532.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622845.814588.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>123.16</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>124.08</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.9200000000000017</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3307,51 +3647,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731622846.0685587</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731622846.7626717</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622846.0685587.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622846.7626717.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>123.56</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>123.58</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3359,51 +3705,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731622846.7813544</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731622852.633326</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622846.7813544.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622852.633326.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>123.58</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>123.74</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3411,51 +3763,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731622856.0743048</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731622857.7652383</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622856.0743048.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622857.7652383.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>124.06</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>124.34</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3463,51 +3821,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731622857.7811959</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731622858.6157281</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622857.7811959.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622858.6157281.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>124.34</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>124.86</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.519999999999996</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731622863.428158</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731622864.4911785</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622863.428158.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622864.4911785.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>159.02</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>159.22</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731622864.507136</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731622865.37578</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622864.507136.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622865.37578.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>159.22</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>159.26</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731622865.3927312</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731622867.6089613</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622865.3927312.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622867.6089613.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>159.26</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>160.1</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731622870.0888238</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731622871.009557</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622870.0888238.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622871.009557.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>160.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>161.58</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731622873.803653</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731622875.126794</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622873.803653.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622875.126794.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>161.7</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>162.3</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -3775,95 +4169,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731622875.7823346</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731622875.7823346.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731622875.7823346.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>162.04</v>
       </c>
-      <c r="J66" t="n">
-        <v>162.04</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>162.3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.2600000000000193</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731622877.405171</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731622878.32597</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622877.405171.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622878.32597.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.055</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.065</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3871,51 +4277,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731622878.3419285</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731622879.9696188</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622878.3419285.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622879.9696188.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>49.065</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>49.295</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.230000000000004</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3923,51 +4335,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731622888.5938165</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731622889.0621328</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622888.5938165.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622889.0621328.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>49.9</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>50.125</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.2250000000000014</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3975,95 +4393,107 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731622889.5899837</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731622889.5899837.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731622889.5899837.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>49.99</v>
       </c>
-      <c r="J70" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>50.225</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2349999999999994</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731622894.9797697</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731622897.8425481</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622894.9797697.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622897.8425481.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1371.4</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1371.2</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -4071,51 +4501,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731622902.5297673</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731622903.7475781</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622902.5297673.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622903.7475781.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1377.8</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1384</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -4123,51 +4559,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731622904.4746256</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731622905.0729227</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622904.4746256.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622905.0729227.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1381.4</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1384.4</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>3</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4175,51 +4617,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731622909.8589954</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731622911.4489264</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622909.8589954.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622911.4489264.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>61.07</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>60.91</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.1600000000000037</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4227,51 +4675,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731622912.2518637</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731622914.6727164</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622912.2518637.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622914.6727164.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>61</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>60.92</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4279,51 +4733,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731622914.6896708</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731622921.2987776</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622914.6896708.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622921.2987776.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>60.92</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>61.11</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4331,95 +4791,107 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731622921.31576</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731622921.31576.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731622921.31576.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>61.11</v>
       </c>
-      <c r="J77" t="n">
-        <v>61.11</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>61.52</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.4100000000000037</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731622926.4861777</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731622927.8205485</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622926.4861777.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622927.8205485.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>96.73</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>97.25</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.519999999999996</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -4427,51 +4899,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731622928.1700459</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731622929.0030854</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622928.1700459.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622929.0030854.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>97.04000000000001</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>97.09</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4479,51 +4957,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731622929.0200408</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731622929.9020045</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622929.0200408.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622929.9020045.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>97.09</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>96.67</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -4531,51 +5015,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731622930.2274466</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731622931.252668</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622930.2274466.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622931.252668.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>96.87</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>96.91</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4583,51 +5073,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731622931.2706196</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731622932.0419254</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622931.2706196.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622932.0419254.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>96.91</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>97.31</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -4635,51 +5131,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731622932.3762512</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731622934.0805125</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622932.3762512.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622934.0805125.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>97.3</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4687,51 +5189,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731622935.7777936</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731622936.7479093</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622935.7777936.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622936.7479093.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>97.61</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>97.72</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4739,95 +5247,107 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731622937.4123726</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731622937.4123726.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731622937.4123726.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>97.83</v>
       </c>
-      <c r="J85" t="n">
-        <v>97.83</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>98.26000000000001</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.4300000000000068</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731622942.7473445</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731622943.9583716</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622942.7473445.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622943.9583716.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>55.35</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>55.32</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4835,51 +5355,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731622943.9743276</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731622947.314867</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622943.9743276.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622947.314867.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>55.32</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>55.4</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4887,95 +5413,107 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731622955.471232</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731622955.471232.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731622955.471232.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>55.77</v>
       </c>
-      <c r="J88" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>55.97</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.1999999999999957</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731622961.041897</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731622961.3469386</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622961.041897.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622961.3469386.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>150</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>149.52</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4983,51 +5521,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731622962.3221302</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731622963.680486</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622962.3221302.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622963.680486.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>149.66</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>149.58</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -5035,51 +5579,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731622963.697413</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731622965.5934155</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622963.697413.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622965.5934155.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>149.58</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>150.38</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.7999999999999829</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -5087,51 +5637,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731622968.8615365</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731622969.8497593</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622968.8615365.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622969.8497593.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>150.58</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>151.44</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.8599999999999852</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -5139,51 +5695,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731622978.0474877</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731622983.1825523</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731622978.0474877.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731622983.1825523.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.2945</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.2957</v>
       </c>
-      <c r="K93" t="n">
-        <v>-0.001199999999999979</v>
-      </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
+        <v>-0.001200000000000034</v>
+      </c>
+      <c r="N93" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -5191,95 +5753,107 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731622983.198482</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731622983.198482.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731622983.198482.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.2957</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.2957</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.2988</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.003099999999999992</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731622986.64448</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731622987.5204623</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622986.64448.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622987.5204623.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>19.919</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>19.872</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.0470000000000006</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -5287,51 +5861,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731622987.537417</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731622989.449773</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622987.537417.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622989.449773.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>19.872</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19.859</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.01299999999999812</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -5339,51 +5919,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731622989.466731</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731622990.7326603</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622989.466731.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622990.7326603.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.859</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.805</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.05400000000000205</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -5391,51 +5977,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731622996.3895185</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731622997.2346582</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622996.3895185.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622997.2346582.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.947</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>19.95</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5443,51 +6035,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731622997.2526093</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731622998.2221327</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622997.2526093.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622998.2221327.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>19.95</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>19.955</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5495,51 +6093,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731622998.2390873</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731622999.1721988</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622998.2390873.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622999.1721988.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>19.955</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>19.962</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.00700000000000145</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5547,95 +6151,107 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731622999.1891568</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731622999.1891568.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731622999.1891568.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>19.962</v>
       </c>
-      <c r="J101" t="n">
-        <v>19.962</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>20.035</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.0730000000000004</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731623006.591274</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731623008.1428642</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731623006.591274.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731623008.1428642.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>665.15</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>666.75</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -5643,51 +6259,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731623012.9223325</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731623014.786459</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731623012.9223325.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731623014.786459.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>670.75</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>670.7</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5695,95 +6317,107 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731623014.8044415</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731623014.8044415.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731623014.8044415.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>670.7</v>
       </c>
-      <c r="J104" t="n">
-        <v>670.7</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>674.45</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731623019.1372972</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731623020.3636477</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623019.1372972.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623020.3636477.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>149.31</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>149.84</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-0.5300000000000011</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -5791,51 +6425,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731623020.3818564</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731623022.1500492</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623020.3818564.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623022.1500492.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>149.84</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>149.51</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-0.3300000000000125</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -5843,51 +6483,57 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731623022.1680012</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731623023.251838</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623022.1680012.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623023.251838.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>149.51</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>148.89</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -5895,51 +6541,57 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731623030.5677958</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731623033.0430248</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623030.5677958.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731623033.0430248.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>152.77</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>153.9</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>1.129999999999995</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -6023,19 +6675,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.660000000000011</v>
+        <v>2.090000000000018</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2075000000000014</v>
+        <v>0.2612500000000022</v>
       </c>
       <c r="E3" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="F3" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -6045,19 +6697,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02700000000000102</v>
+        <v>-0.02600000000000158</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003375000000000128</v>
+        <v>-0.003250000000000197</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23</v>
+        <v>-0.21</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="5">
@@ -6067,19 +6719,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999574</v>
+        <v>0.2799999999999585</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1249999999999947</v>
+        <v>0.03499999999999481</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7799999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -6089,19 +6741,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09300000000000708</v>
+        <v>0.02000000000000668</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0132857142857153</v>
+        <v>0.002857142857143811</v>
       </c>
       <c r="E6" t="n">
-        <v>0.47</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -6111,19 +6763,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.400000000000091</v>
+        <v>0.1999999999999318</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3428571428571558</v>
+        <v>0.02857142857141883</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4800000000000001</v>
+        <v>0.03999999999999992</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -6133,19 +6785,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.380000000000024</v>
+        <v>2.640000000000043</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3966666666666707</v>
+        <v>0.4400000000000072</v>
       </c>
       <c r="E8" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
@@ -6155,19 +6807,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-83</v>
+        <v>-69</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.83333333333333</v>
+        <v>-11.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.3</v>
+        <v>-1.08</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="10">
@@ -6177,19 +6829,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08999999999997499</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01499999999999583</v>
+        <v>0.06666666666666288</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03</v>
+        <v>0.15</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
@@ -6265,19 +6917,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1074999999999999</v>
+        <v>0.004999999999999005</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="F14" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
@@ -6287,19 +6939,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4450000000000074</v>
+        <v>0.6800000000000068</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1112500000000018</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
@@ -6353,19 +7005,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.3099999999999952</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03666666666666648</v>
+        <v>0.1033333333333317</v>
       </c>
       <c r="E18" t="n">
-        <v>0.19</v>
+        <v>0.55</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
@@ -6375,19 +7027,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.550000000000068</v>
+        <v>-2.199999999999932</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5166666666666894</v>
+        <v>-0.7333333333333106</v>
       </c>
       <c r="E19" t="n">
-        <v>0.23</v>
+        <v>-0.33</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="20">
@@ -6419,19 +7071,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.001899999999999957</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0005999999999999894</v>
+        <v>0.0009499999999999786</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.41</v>
+        <v>0.64</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="22">
